--- a/data/trans_camb/KIDM_C_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 17,9</t>
+          <t>-1,89; 17,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 27,23</t>
+          <t>3,18; 24,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -1,11</t>
+          <t>-10,88; -1,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 17,84</t>
+          <t>-0,17; 17,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 13,69</t>
+          <t>-4,19; 15,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -1,31</t>
+          <t>-10,85; -1,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 13,68</t>
+          <t>1,73; 15,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 15,98</t>
+          <t>1,74; 16,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; -1,42</t>
+          <t>-8,02; -1,42</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 1248,63</t>
+          <t>-62,66; 1431,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1866,66</t>
+          <t>1,16; 1587,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 1321,73</t>
+          <t>-23,62; 1508,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,53; 731,63</t>
+          <t>9,94; 698,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 792,45</t>
+          <t>6,99; 792,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 11,44</t>
+          <t>3,58; 11,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,98</t>
+          <t>1,43; 8,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,91</t>
+          <t>-4,81; 0,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,64</t>
+          <t>7,32; 17,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,34</t>
+          <t>-0,98; 7,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 4,6</t>
+          <t>-3,91; 4,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,99</t>
+          <t>6,5; 13,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,13</t>
+          <t>1,81; 7,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,47</t>
+          <t>-3,56; 1,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,51; 422,45</t>
+          <t>59,63; 463,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,35; 344,91</t>
+          <t>24,16; 334,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-82,59; 58,8</t>
+          <t>-83,71; 51,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,23; 426,49</t>
+          <t>94,56; 458,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 180,51</t>
+          <t>-15,85; 174,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 121,53</t>
+          <t>-55,86; 132,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>105,14; 364,99</t>
+          <t>99,0; 349,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 190,25</t>
+          <t>28,99; 190,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 40,55</t>
+          <t>-59,11; 41,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 16,48</t>
+          <t>-0,19; 16,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 11,33</t>
+          <t>-2,68; 11,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 1,1</t>
+          <t>-10,62; 0,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 12,47</t>
+          <t>-3,26; 12,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 13,32</t>
+          <t>-2,78; 12,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -1,43</t>
+          <t>-11,93; -1,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 12,31</t>
+          <t>0,18; 11,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 10,67</t>
+          <t>-0,27; 10,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; -1,16</t>
+          <t>-8,43; -1,21</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 1157,92</t>
+          <t>-21,83; 1086,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 983,91</t>
+          <t>-53,11; 736,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 674,35</t>
+          <t>-41,79; 923,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 766,23</t>
+          <t>-47,79; 697,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 513,32</t>
+          <t>-4,94; 468,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 470,93</t>
+          <t>-11,82; 408,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 93,42</t>
+          <t>-100,0; 4,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,06</t>
+          <t>4,33; 10,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,23</t>
+          <t>2,67; 9,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,03</t>
+          <t>-4,72; -0,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,84</t>
+          <t>6,1; 13,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,95</t>
+          <t>0,66; 7,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,88</t>
+          <t>-4,45; 2,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,32</t>
+          <t>6,04; 11,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,2</t>
+          <t>2,56; 7,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,11</t>
+          <t>-3,76; -0,15</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>69,76; 355,3</t>
+          <t>81,45; 383,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,04; 328,76</t>
+          <t>44,03; 305,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,68; 17,45</t>
+          <t>-83,29; 8,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,16; 332,22</t>
+          <t>87,5; 360,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 166,68</t>
+          <t>3,07; 184,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 54,76</t>
+          <t>-65,88; 56,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>104,59; 295,04</t>
+          <t>102,97; 299,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,62; 191,92</t>
+          <t>42,86; 185,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 7,03</t>
+          <t>-65,06; 1,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/KIDM_C_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/KIDM_C_3_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,94</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,46</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>13,07</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-4,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 17,84</t>
+          <t>0,96; 17,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 24,59</t>
+          <t>-4,71; 14,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -1,12</t>
+          <t>-11,07; -1,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 17,55</t>
+          <t>-0,82; 19,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 15,09</t>
+          <t>3,26; 26,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -1,3</t>
+          <t>-11,36; -1,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,2</t>
+          <t>1,8; 14,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 16,59</t>
+          <t>2,46; 16,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; -1,42</t>
+          <t>-8,01; -1,36</t>
         </is>
       </c>
     </row>
@@ -738,27 +738,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>196,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>78,42%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>161,3%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>326,59%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>196,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>78,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 1431,16</t>
+          <t>-18,13; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1587,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,27 +806,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 1508,86</t>
+          <t>-49,89; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-0,74; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 698,99</t>
+          <t>6,15; 711,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 792,18</t>
+          <t>16,19; 978,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12,05</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,74</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>5,29</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,05</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 11,93</t>
+          <t>7,42; 17,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,92</t>
+          <t>-0,71; 7,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,96</t>
+          <t>-4,54; 3,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 17,4</t>
+          <t>3,67; 12,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 7,13</t>
+          <t>1,57; 9,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,6</t>
+          <t>-4,7; 1,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 13,23</t>
+          <t>6,66; 13,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,21</t>
+          <t>1,55; 6,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,46</t>
+          <t>-3,89; 0,92</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>210,87%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55,97%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-12,87%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>186,52%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>127,58%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-46,08%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>210,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>55,97%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-45,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-25,39%</t>
+          <t>-28,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,63; 463,09</t>
+          <t>91,02; 446,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,16; 334,66</t>
+          <t>-9,38; 195,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,71; 51,45</t>
+          <t>-64,33; 92,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,56; 458,12</t>
+          <t>61,91; 436,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 174,0</t>
+          <t>13,83; 329,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 132,35</t>
+          <t>-85,06; 49,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,0; 349,51</t>
+          <t>97,73; 359,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,99; 190,37</t>
+          <t>24,41; 182,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,11; 41,36</t>
+          <t>-64,66; 28,82</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-5,24</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>7,89</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>4,53</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,84</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,42</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-3,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 16,8</t>
+          <t>-3,52; 12,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 11,31</t>
+          <t>-2,33; 13,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 0,93</t>
+          <t>-13,07; -1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 12,76</t>
+          <t>0,25; 17,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 12,41</t>
+          <t>-1,97; 11,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -1,27</t>
+          <t>-9,5; 1,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 11,85</t>
+          <t>0,17; 11,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,43</t>
+          <t>-0,28; 10,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -1,21</t>
+          <t>-7,94; -0,62</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>82,85%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103,48%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>196,62%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>112,9%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-70,88%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>82,85%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>103,48%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-69,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-85,76%</t>
+          <t>-84,97%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 1086,23</t>
+          <t>-60,86; 640,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,11; 736,75</t>
+          <t>-31,92; 844,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 923,11</t>
+          <t>-29,28; 1424,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,79; 697,81</t>
+          <t>-43,87; 888,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 468,35</t>
+          <t>-8,61; 556,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 408,76</t>
+          <t>-15,86; 384,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,39</t>
+          <t>-100,0; 105,81</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9,85</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,58</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>5,94</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,96</t>
+          <t>5,8; 13,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,3</t>
+          <t>0,59; 7,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; -0,04</t>
+          <t>-4,57; 1,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,78</t>
+          <t>4,44; 11,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,4</t>
+          <t>2,58; 9,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,11</t>
+          <t>-4,48; 0,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,19</t>
+          <t>6,11; 11,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,19</t>
+          <t>2,68; 7,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -0,15</t>
+          <t>-4,09; -0,14</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>183,6%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70,03%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-29,76%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>184,66%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>144,66%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-54,19%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>183,6%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>70,03%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>-53,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>-42,1%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,45; 383,79</t>
+          <t>74,14; 337,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,03; 305,87</t>
+          <t>4,81; 178,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,29; 8,56</t>
+          <t>-71,18; 42,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>87,5; 360,07</t>
+          <t>77,78; 391,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 184,1</t>
+          <t>47,93; 331,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 56,66</t>
+          <t>-82,65; 15,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>102,97; 299,48</t>
+          <t>102,56; 295,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,86; 185,05</t>
+          <t>42,07; 190,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 1,74</t>
+          <t>-69,57; -2,86</t>
         </is>
       </c>
     </row>
